--- a/excel/豆瓣TOP250电影.xlsx
+++ b/excel/豆瓣TOP250电影.xlsx
@@ -12,6 +12,8 @@
     <sheet name="Sheet Copy2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Sheet Copy3" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Sheet Copy4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet Copy5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sheet Copy6" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -26138,4 +26140,8578 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C251"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>电影名称</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>评分</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>资料</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>肖申克的救赎</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>导演: 弗兰克·德拉邦特 Frank Darabont   主演: 蒂姆·罗宾斯 Tim Robbins /...1994 / 美国 / 犯罪 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>霸王别姬</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>导演: 陈凯歌 Kaige Chen   主演: 张国荣 Leslie Cheung / 张丰毅 Fengyi Zha...1993 / 中国大陆 中国香港 / 剧情 爱情 同性</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>阿甘正传</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>导演: 罗伯特·泽米吉斯 Robert Zemeckis   主演: 汤姆·汉克斯 Tom Hanks / ...1994 / 美国 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>泰坦尼克号</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>导演: 詹姆斯·卡梅隆 James Cameron   主演: 莱昂纳多·迪卡普里奥 Leonardo...1997 / 美国 墨西哥 澳大利亚 加拿大 / 剧情 爱情 灾难</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>这个杀手不太冷</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>导演: 吕克·贝松 Luc Besson   主演: 让·雷诺 Jean Reno / 娜塔莉·波特曼 ...1994 / 法国 美国 / 剧情 动作 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>美丽人生</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>导演: 罗伯托·贝尼尼 Roberto Benigni   主演: 罗伯托·贝尼尼 Roberto Beni...1997 / 意大利 / 剧情 喜剧 爱情 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>千与千寻</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>导演: 宫崎骏 Hayao Miyazaki   主演: 柊瑠美 Rumi Hîragi / 入野自由 Miy...2001 / 日本 / 剧情 动画 奇幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>辛德勒的名单</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>导演: 史蒂文·斯皮尔伯格 Steven Spielberg   主演: 连姆·尼森 Liam Neeson...1993 / 美国 / 剧情 历史 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>盗梦空间</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>导演: 克里斯托弗·诺兰 Christopher Nolan   主演: 莱昂纳多·迪卡普里奥 Le...2010 / 美国 英国 / 剧情 科幻 悬疑 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>忠犬八公的故事</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>导演: 莱塞·霍尔斯道姆 Lasse Hallström   主演: 理查·基尔 Richard Ger...2009 / 美国 英国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>星际穿越</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>导演: 克里斯托弗·诺兰 Christopher Nolan   主演: 马修·麦康纳 Matthew Mc...2014 / 美国 英国 加拿大 / 剧情 科幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>楚门的世界</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>导演: 彼得·威尔 Peter Weir   主演: 金·凯瑞 Jim Carrey / 劳拉·琳妮 Lau...1998 / 美国 / 剧情 科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>海上钢琴师</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>导演: 朱塞佩·托纳多雷 Giuseppe Tornatore   主演: 蒂姆·罗斯 Tim Roth / ...1998 / 意大利 / 剧情 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>三傻大闹宝莱坞</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>导演: 拉库马·希拉尼 Rajkumar Hirani   主演: 阿米尔·汗 Aamir Khan / 卡...2009 / 印度 / 剧情 喜剧 爱情 歌舞</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>机器人总动员</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>导演: 安德鲁·斯坦顿 Andrew Stanton   主演: 本·贝尔特 Ben Burtt / 艾丽...2008 / 美国 / 科幻 动画 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>放牛班的春天</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>导演: 克里斯托夫·巴拉蒂 Christophe Barratier   主演: 让-巴蒂斯特·莫尼...2004 / 法国 瑞士 德国 / 剧情 喜剧 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>无间道</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>导演: 刘伟强 / 麦兆辉   主演: 刘德华 / 梁朝伟 / 黄秋生2002 / 中国香港 / 剧情 犯罪 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>疯狂动物城</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>导演: 拜伦·霍华德 Byron Howard / 瑞奇·摩尔 Rich Moore   主演: 金妮弗·...2016 / 美国 / 喜剧 动画 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>大话西游之大圣娶亲</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>导演: 刘镇伟 Jeffrey Lau   主演: 周星驰 Stephen Chow / 吴孟达 Man Tat Ng...1995 / 中国香港 中国大陆 / 喜剧 爱情 奇幻 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>熔炉</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>导演: 黄东赫 Dong-hyuk Hwang   主演: 孔侑 Yoo Gong / 郑有美 Yu-mi Jung /...2011 / 韩国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>控方证人</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>导演: 比利·怀尔德 Billy Wilder   主演: 泰隆·鲍华 Tyrone Power / 玛琳·...1957 / 美国 / 剧情 犯罪 悬疑</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>教父</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>导演: 弗朗西斯·福特·科波拉 Francis Ford Coppola   主演: 马龙·白兰度 M...1972 / 美国 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>当幸福来敲门</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>导演: 加布里尔·穆奇诺 Gabriele Muccino   主演: 威尔·史密斯 Will Smith ...2006 / 美国 / 剧情 传记 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>触不可及</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>导演: 奥利维·那卡什 Olivier Nakache / 艾力克·托兰达 Eric Toledano   主...2011 / 法国 / 剧情 喜剧</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>怦然心动</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>导演: 罗伯·莱纳 Rob Reiner   主演: 玛德琳·卡罗尔 Madeline Carroll / 卡...2010 / 美国 / 剧情 喜剧 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>龙猫</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>导演: 宫崎骏 Hayao Miyazaki   主演: 日高法子 Noriko Hidaka / 坂本千夏 Ch...1988 / 日本 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>末代皇帝</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>导演: 贝纳尔多·贝托鲁奇 Bernardo Bertolucci   主演: 尊龙 John Lone / 陈...1987 / 英国 意大利 中国大陆 法国 / 剧情 传记 历史</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>寻梦环游记</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>导演: 李·昂克里奇 Lee Unkrich / 阿德里安·莫利纳 Adrian Molina   主演: ...2017 / 美国 / 喜剧 动画 奇幻 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>蝙蝠侠：黑暗骑士</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>导演: 克里斯托弗·诺兰 Christopher Nolan   主演: 克里斯蒂安·贝尔 Christ...2008 / 美国 英国 / 剧情 动作 科幻 犯罪 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>活着</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>导演: 张艺谋 Yimou Zhang   主演: 葛优 You Ge / 巩俐 Li Gong / 姜武 Wu Jiang1994 / 中国大陆 中国香港 / 剧情 历史 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>哈利·波特与魔法石</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>导演: Chris Columbus   主演: Daniel Radcliffe / Emma Watson / Rupert Grint2001 / 美国 英国 / 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>指环王3：王者无敌</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>导演: 彼得·杰克逊 Peter Jackson   主演: 伊利亚·伍德 Elijah Wood / 西恩...2003 / 美国 新西兰 / 剧情 动作 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>乱世佳人</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>导演: 维克多·弗莱明 Victor Fleming / 乔治·库克 George Cukor   主演: 费...1939 / 美国 / 剧情 历史 爱情 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>素媛</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>导演: 李濬益 Jun-ik Lee   主演: 薛景求 Kyung-gu Sol / 严志媛 Ji-won Uhm ...2013 / 韩国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>飞屋环游记</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>导演: 彼特·道格特 Pete Docter / 鲍勃·彼德森 Bob Peterson   主演: 爱德...2009 / 美国 / 剧情 喜剧 动画 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>摔跤吧！爸爸</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>导演: 涅提·蒂瓦里 Nitesh Tiwari   主演: 阿米尔·汗 Aamir Khan / 法缇玛...2016 / 印度 / 剧情 传记 运动 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>我不是药神</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>导演: 文牧野 Muye Wen   主演: 徐峥 Zheng Xu / 王传君 Chuanjun Wang / 周...2018 / 中国大陆 / 剧情 喜剧</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>何以为家</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>导演: 娜丁·拉巴基 Nadine Labaki   主演: 扎因·拉费阿 Zain al-Rafeea / ...2018 / 黎巴嫩 美国 法国 塞浦路斯 卡塔尔 英国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>十二怒汉</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>导演: Sidney Lumet   主演: 亨利·方达 Henry Fonda / 马丁·鲍尔萨姆 Marti...1957 / 美国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>哈尔的移动城堡</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>导演: 宫崎骏 Hayao Miyazaki   主演: 倍赏千惠子 Chieko Baishô / 木村拓...2004 / 日本 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>少年派的奇幻漂流</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>导演: 李安 Ang Lee   主演: 苏拉·沙玛 Suraj Sharma / 伊尔凡·可汗 Irrfan...2012 / 美国 中国台湾 英国 加拿大 / 剧情 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>鬼子来了</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>导演: 姜文 Wen Jiang   主演: 姜文 Wen Jiang / 香川照之 Teruyuki Kagawa /...2000 / 中国大陆 / 剧情 喜剧</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>猫鼠游戏</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>导演: 史蒂文·斯皮尔伯格 Steven Spielberg   主演: 莱昂纳多·迪卡普里奥 L...2002 / 美国 加拿大 / 传记 犯罪 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>大话西游之月光宝盒</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>导演: 刘镇伟 Jeffrey Lau   主演: 周星驰 Stephen Chow / 吴孟达 Man Tat Ng...1995 / 中国香港 中国大陆 / 喜剧 爱情 奇幻 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>天空之城</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>导演: 宫崎骏 Hayao Miyazaki   主演: 田中真弓 Mayumi Tanaka / 横泽启子 Ke...1986 / 日本 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>闻香识女人</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>导演: 马丁·布莱斯 Martin Brest   主演: 阿尔·帕西诺 Al Pacino / 克里斯...1992 / 美国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>天堂电影院</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>导演: 朱塞佩·托纳多雷 Giuseppe Tornatore   主演: 菲利普·努瓦雷 Philipp...1988 / 意大利 法国 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>钢琴家</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>导演: 罗曼·波兰斯基 Roman Polanski   主演: 艾德里安·布洛迪 Adrien Brod...2002 / 英国 法国 波兰 德国 / 剧情 传记 战争 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>指环王2：双塔奇兵</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>导演: 彼得·杰克逊 Peter Jackson   主演: 伊利亚·伍德 Elijah Wood / 西恩...2002 / 美国 新西兰 / 剧情 动作 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>让子弹飞</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>导演: 姜文 Wen Jiang   主演: 姜文 Wen Jiang / 葛优 You Ge / 周润发 Yun-F...2010 / 中国大陆 中国香港 / 剧情 喜剧 动作 西部</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>罗马假日</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>导演: 威廉·惠勒 William Wyler   主演: 奥黛丽·赫本 Audrey Hepburn / 格...1953 / 美国 / 喜剧 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>海蒂和爷爷</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>导演: 阿兰·葛斯彭纳 Alain Gsponer   主演: 阿努克·斯特芬 Anuk Steffen /...2015 / 德国 瑞士 / 剧情 冒险 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>黑客帝国</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>导演: 安迪·沃卓斯基 Andy Wachowski / 拉娜·沃卓斯基 Lana Wachowski   主...1999 / 美国 / 动作 科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>指环王1：护戒使者</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>导演: 彼得·杰克逊 Peter Jackson   主演: 伊利亚·伍德 Elijah Wood / 西恩...2001 / 新西兰 美国 / 剧情 动作 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>大闹天宫</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>导演: 万籁鸣 Laiming Wan   主演: 邱岳峰 Yuefeng Qiu / 富润生 Runsheng Fu...1961(中国大陆) / 1964(中国大陆) / 1978(中国大陆) / 中国大陆 / 剧情 动画 奇幻 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>教父2</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>导演: 弗朗西斯·福特·科波拉 Francis Ford Coppola   主演: 阿尔·帕西诺 A...1974 / 美国 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>死亡诗社</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>导演: 彼得·威尔 Peter Weir   主演: 罗宾·威廉姆斯 Robin Williams / 罗伯...1989 / 美国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>辩护人</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>导演: 杨宇硕 Woo-seok Yang   主演: 宋康昊 Kang-ho Song / 金英爱 Yeong-ae...2013 / 韩国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>狮子王</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>导演: Roger Allers / 罗伯·明可夫 Rob Minkoff   主演: 乔纳森·泰勒·托马...1994 / 美国 / 动画 冒险 歌舞</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>绿皮书</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>导演: 彼得·法雷里 Peter Farrelly   主演: 维果·莫腾森 Viggo Mortensen /...2018 / 美国 中国大陆 / 剧情 喜剧 传记 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>搏击俱乐部</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>导演: 大卫·芬奇 David Fincher   主演: 爱德华·诺顿 Edward Norton / 布拉...1999 / 美国 德国 意大利 / 剧情 动作 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>饮食男女</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>导演: 李安 Ang Lee   主演: 郎雄 Sihung Lung / 杨贵媚 Kuei-Mei Yang / 吴...1994 / 中国台湾 美国 / 剧情 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>美丽心灵</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>导演: 朗·霍华德 Ron Howard   主演: 罗素·克劳 Russell Crowe / 艾德·哈...2001 / 美国 / 传记 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>本杰明·巴顿奇事</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>导演: 大卫·芬奇 David Fincher   主演: 凯特·布兰切特 Cate Blanchett / ...2008 / 美国 / 剧情 爱情 奇幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>窃听风暴</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>导演: 弗洛里安·亨克尔·冯·多纳斯马尔克 Florian Henckel von Donnersmarck  &amp;n...2006 / 德国 / 剧情 悬疑</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>情书</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>导演: 岩井俊二 Shunji Iwai   主演: 中山美穗 Miho Nakayama / 丰川悦司 Ets...1995 / 日本 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>穿条纹睡衣的男孩</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>导演: 马克·赫尔曼 Mark Herman   主演: 阿萨·巴特菲尔德 Asa Butterfield ...2008 / 英国 美国 / 剧情 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>两杆大烟枪</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>导演: Guy Ritchie   主演: Jason Flemyng / Dexter Fletcher / Nick Moran1998 / 英国 / 剧情 喜剧 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>西西里的美丽传说</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>导演: 朱塞佩·托纳多雷 Giuseppe Tornatore   主演: 莫妮卡·贝鲁奇 Monica ...2000 / 意大利 美国 / 剧情 战争 情色</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>看不见的客人</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>导演: 奥里奥尔·保罗 Oriol Paulo   主演: 马里奥·卡萨斯 Mario Casas / 阿...2016 / 西班牙 / 剧情 犯罪 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>拯救大兵瑞恩</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>导演: 史蒂文·斯皮尔伯格 Steven Spielberg   主演: 汤姆·汉克斯 Tom Hanks...1998 / 美国 / 剧情 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>音乐之声</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>导演: 罗伯特·怀斯 Robert Wise   主演: 朱莉·安德鲁斯 Julie Andrews / 克...1965 / 美国 / 剧情 传记 爱情 歌舞</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>飞越疯人院</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>导演: 米洛斯·福尔曼 Miloš Forman   主演: 杰克·尼科尔森 Jack Nichols...1975 / 美国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>小鞋子</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>导演: 马基德·马基迪 Majid Majidi   主演: 默罕默德·阿米尔·纳吉 Mohamma...1997 / 伊朗 / 剧情 儿童 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>阿凡达</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>导演: 詹姆斯·卡梅隆 James Cameron   主演: 萨姆·沃辛顿 Sam Worthington ...2009 / 美国 / 动作 科幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>哈利·波特与死亡圣器(下)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>导演: 大卫·叶茨 David Yates   主演: 丹尼尔·雷德克里夫 Daniel Radcliffe...2011 / 美国 英国 / 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>沉默的羔羊</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>导演: 乔纳森·戴米 Jonathan Demme   主演: 朱迪·福斯特 Jodie Foster / 安...1991 / 美国 / 剧情 犯罪 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>海豚湾</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>导演: 路易·西霍尤斯 Louie Psihoyos   主演: Richard O'Barry / 路易·西霍...2009 / 美国 / 纪录片</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>致命魔术</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>导演: 克里斯托弗·诺兰 Christopher Nolan   主演: 休·杰克曼 Hugh Jackman...2006 / 英国 美国 / 剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>禁闭岛</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>导演: Martin Scorsese   主演: 莱昂纳多·迪卡普里奥 Leonardo DiCaprio / ...2010 / 美国 / 剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>布达佩斯大饭店</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>导演: 韦斯·安德森 Wes Anderson   主演: 拉尔夫·费因斯 Ralph Fiennes / ...2014 / 美国 德国 英国 / 剧情 喜剧 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>蝴蝶效应</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>导演: 埃里克·布雷斯 Eric Bress / J·麦基·格鲁伯 J. Mackye Gruber   主...2004 / 美国 加拿大 / 剧情 悬疑 科幻 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>美国往事</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>导演: 赛尔乔·莱翁内 Sergio Leone   主演: 罗伯特·德尼罗 Robert De Niro ...1984 / 美国 意大利 / 犯罪 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>心灵捕手</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>导演: 格斯·范·桑特 Gus Van Sant   主演: 马特·达蒙 Matt Damon / 罗宾·...1997 / 美国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>低俗小说</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>导演: 昆汀·塔伦蒂诺 Quentin Tarantino   主演: 约翰·特拉沃尔塔 John Tra...1994 / 美国 / 剧情 喜剧 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>春光乍泄</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>导演: 王家卫 Kar Wai Wong   主演: 张国荣 Leslie Cheung / 梁朝伟 Tony Leu...1997 / 中国香港 日本 韩国 / 剧情 爱情 同性</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>摩登时代</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>导演: 查理·卓别林 Charles Chaplin   主演: 查理·卓别林 Charles Chaplin ...1936 / 美国 / 剧情 喜剧 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>七宗罪</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>导演: 大卫·芬奇 David Fincher   主演: 摩根·弗里曼 Morgan Freeman / 布...1995 / 美国 / 剧情 犯罪 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>喜剧之王</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>导演: 周星驰 Stephen Chow / 李力持 Lik-Chi Lee   主演: 周星驰 Stephen Ch...1999 / 中国香港 / 喜剧 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>致命ID</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>导演: 詹姆斯·曼高德 James Mangold   主演: 约翰·库萨克 John Cusack / 雷...2003 / 美国 / 剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>杀人回忆</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>导演: 奉俊昊 Joon-ho Bong   主演: 宋康昊 Kang-ho Song / 金相庆 Sang-kyun...2003 / 韩国 / 剧情 动作 犯罪 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>功夫</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>导演: 周星驰 Stephen Chow   主演: 周星驰 Stephen Chow / 元秋 Qiu Yuen / ...2004 / 中国大陆 中国香港 / 动作 喜剧 犯罪 奇幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>超脱</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>导演: 托尼·凯耶 Tony Kaye   主演: 艾德里安·布洛迪 Adrien Brody / 马西...2011 / 美国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>哈利·波特与阿兹卡班的囚徒</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>导演: Alfonso Cuarón   主演: 丹尼尔·雷德克里夫 Daniel Radcliffe / Emma...2004 / 英国 美国 / 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>加勒比海盗</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>导演: 戈尔·维宾斯基 Gore Verbinski   主演: 约翰尼·德普 Johnny Depp / ...2003 / 美国 / 动作 冒险 奇幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>被嫌弃的松子的一生</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>导演: 中岛哲也 Tetsuya Nakashima   主演: 中谷美纪 Miki Nakatani / 瑛太 E...2006 / 日本 / 剧情 歌舞</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>红辣椒</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>导演: 今敏 Satoshi Kon   主演: 林原惠美 Megumi Hayashibara / 江守彻 Toru...2006 / 日本 / 动画 悬疑 科幻 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>狩猎</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>导演: 托马斯·温特伯格 Thomas Vinterberg   主演: 麦斯·米科尔森 Mads Mik...2012 / 丹麦 瑞典 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>请以你的名字呼唤我</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>导演: 卢卡·瓜达尼诺 Luca Guadagnino   主演: 艾米·汉莫 Armie Hammer / ...2017 / 意大利 法国 巴西 美国 / 剧情 爱情 同性</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>7号房的礼物</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>导演: 李焕庆 Hwan-kyeong Lee   主演: 柳承龙 Seung-yong Ryoo / 朴信惠 Shi...2013 / 韩国 / 剧情 喜剧 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>剪刀手爱德华</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>导演: 蒂姆·波顿 Tim Burton   主演: 约翰尼·德普 Johnny Depp / 薇诺娜·...1990 / 美国 / 剧情 奇幻 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>勇敢的心</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>导演: 梅尔·吉布森 Mel Gibson   主演: 梅尔·吉布森 Mel Gibson / 苏菲·玛...1995 / 美国 / 动作 传记 剧情 历史 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>断背山</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>导演: 李安 Ang Lee   主演: 希斯·莱杰 Heath Ledger / 杰克·吉伦哈尔 Jake...2005 / 美国 加拿大 / 剧情 爱情 同性 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>唐伯虎点秋香</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>导演: 李力持 Lik-Chi Lee   主演: 周星驰 Stephen Chow / 巩俐 Li Gong / 陈...1993 / 中国香港 / 喜剧 爱情 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>入殓师</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>导演: 泷田洋二郎 Yôjirô Takita   主演: 本木雅弘 Masahiro Motoki / ...2008 / 日本 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>第六感</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>导演: M·奈特·沙马兰 M. Night Shyamalan   主演: 布鲁斯·威利斯 Bruce Wi...1999 / 美国 / 剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>天使爱美丽</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>导演: 让-皮埃尔·热内 Jean-Pierre Jeunet   主演: 奥黛丽·塔图 Audrey Tau...2001 / 法国 德国 / 剧情 喜剧 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>哈利·波特与密室</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>导演: Chris Columbus   主演: 丹尼尔·雷德克里夫 Daniel Radcliffe / 艾玛...2002 / 英国 美国 / 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>爱在黎明破晓前</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>导演: 理查德·林克莱特 Richard Linklater   主演: 伊桑·霍克 Ethan Hawke ...1995 / 美国 奥地利 瑞士 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>重庆森林</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>导演: 王家卫 Kar Wai Wong   主演: 林青霞 Brigitte Lin / 金城武 Takeshi K...1994 / 中国香港 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>一一</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>导演: 杨德昌 Edward Yang   主演: 吴念真 / 李凯莉 Kelly Lee / 金燕玲 Elai...2000 / 中国台湾 日本 / 剧情 爱情 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>幽灵公主</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>导演: 宫崎骏 Hayao Miyazaki   主演: 松田洋治 Yôji Matsuda / 石田百合...1997 / 日本 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>蝙蝠侠：黑暗骑士崛起</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>导演: 克里斯托弗·诺兰 Christopher Nolan   主演: 克里斯蒂安·贝尔 Christ...2012 / 美国 英国 / 剧情 动作 科幻 犯罪 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>小森林 夏秋篇</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>导演: 森淳一 Junichi Mori   主演: 桥本爱 Ai Hashimoto / 三浦贵大 Takahir...2014 / 日本 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>阳光灿烂的日子</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>导演: 姜文 Wen Jiang   主演: 夏雨 Yu Xia / 宁静 Jing Ning / 陶虹 Hong Tao1994 / 中国大陆 中国香港 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>菊次郎的夏天</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>导演: 北野武 Takeshi Kitano   主演: 北野武 Takeshi Kitano / 关口雄介 Yus...1999 / 日本 / 剧情 喜剧</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>超能陆战队</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>导演: 唐·霍尔 Don Hall / 克里斯·威廉姆斯 Chris Williams   主演: 斯科特...2014 / 美国 / 喜剧 动作 科幻 动画 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>完美的世界</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>导演: 克林特·伊斯特伍德 Clint Eastwood   主演: 凯文·科斯特纳 Kevin Cos...1993 / 美国 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>无人知晓</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>导演: 是枝裕和 Hirokazu Koreeda   主演: 柳乐优弥 Yûya Yagira / 北浦爱...2004 / 日本 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>爱在日落黄昏时</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>导演: 理查德·林克莱特 Richard Linklater   主演: 伊桑·霍克 Ethan Hawke ...2004 / 美国 法国 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>消失的爱人</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>导演: 大卫·芬奇 David Fincher   主演: 本·阿弗莱克 Ben Affleck / 罗莎蒙...2014 / 美国 / 剧情 犯罪 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>小森林 冬春篇</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>导演: 森淳一 Junichi Mori   主演: 桥本爱 Ai Hashimoto / 三浦贵大 Takahir...2015 / 日本 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>借东西的小人阿莉埃蒂</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>导演: 米林宏昌 Hiromasa Yonebayashi   主演: 志田未来 Mirai Shida / 神木...2010 / 日本 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>倩女幽魂</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>导演: 程小东 Siu-Tung Ching   主演: 张国荣 Leslie Cheung / 王祖贤 Joey W...1987 / 中国香港 / 爱情 奇幻 武侠 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>甜蜜蜜</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>导演: 陈可辛 Peter Chan   主演: 黎明 Leon Lai / 张曼玉 Maggie Cheung / ...1996 / 中国香港 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>侧耳倾听</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>导演: 近藤喜文 Yoshifumi Kondo   主演: 本名阳子 Youko Honna / 小林桂树 K...1995 / 日本 / 剧情 爱情 动画</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>幸福终点站</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>导演: 史蒂文·斯皮尔伯格 Steven Spielberg   主演: 汤姆·汉克斯 Tom Hanks...2004 / 美国 / 喜剧 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>时空恋旅人</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>导演: 理查德·柯蒂斯 Richard Curtis   主演: 多姆纳尔·格里森 Domhnall Gl...2013 / 英国 / 喜剧 爱情 奇幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>驯龙高手</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>导演: 迪恩·德布洛斯 Dean DeBlois / 克里斯·桑德斯 Chris Sanders   主演:...2010 / 美国 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>萤火之森</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>导演: 大森贵弘 Takahiro Omori   主演: 佐仓绫音 Ayane Sakura / 内山昂辉 K...2011 / 日本 / 剧情 爱情 动画 奇幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>玛丽和马克思</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>导演: 亚当·艾略特 Adam Elliot   主演: 托妮·科莱特 Toni Collette / 菲利...2009 / 澳大利亚 美国 / 剧情 喜剧 动画</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>怪兽电力公司</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>导演: 彼特·道格特 Pete Docter / 大卫·斯沃曼 David Silverman   主演: 约...2001 / 美国 / 儿童 喜剧 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>教父3</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>导演: 弗朗西斯·福特·科波拉 Francis Ford Coppola   主演: 阿尔·帕西诺 A...1990 / 美国 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>一个叫欧维的男人决定去死</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>导演: 汉内斯·赫尔姆 Hannes Holm   主演: 罗夫·拉斯加德 Rolf Lassgård...2015 / 瑞典 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>大鱼</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>导演: 蒂姆·波顿 Tim Burton   主演: 伊万·麦克格雷格 Ewan McGregor / 阿...2003 / 美国 / 剧情 家庭 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>玩具总动员3</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>导演: 李·昂克里奇 Lee Unkrich   主演: 汤姆·汉克斯 Tom Hanks / 蒂姆·艾...2010 / 美国 / 喜剧 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>告白</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>导演: 中岛哲也 Tetsuya Nakashima   主演: 松隆子 Takako Matsu / 冈田将生 ...2010 / 日本 / 剧情 悬疑</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>傲慢与偏见</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>导演: 乔·怀特 Joe Wright   主演: 凯拉·奈特莉 Keira Knightley / 马修·...2005 / 法国 英国 美国 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>神偷奶爸</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>导演: 皮艾尔·柯芬 Pierre Coffin / 克里斯·雷纳德 Chris Renaud   主演: ...2010 / 美国 法国 / 喜剧 动画 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>寄生虫</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>导演: 奉俊昊 Joon-ho Bong   主演: 宋康昊 Kang-ho Song / 李善均 Seon-gyun...2019 / 韩国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>釜山行</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>导演: 延尚昊 Sang-ho Yeon   主演: 孔侑 Yoo Gong / 郑有美 Yu-mi Jung / 马...2016 / 韩国 / 动作 惊悚 灾难</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>阳光姐妹淘</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>导演: 姜炯哲 Hyeong-Cheol Kang   主演: 沈恩京 Eun-kyung Shim / 闵孝琳 Hy...2011 / 韩国 / 剧情 喜剧</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>射雕英雄传之东成西就</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>导演: 刘镇伟 Jeffrey Lau   主演: 梁朝伟 Tony Leung Chiu Wai / 林青霞 Bri...1993 / 中国香港 / 喜剧 奇幻 武侠 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>被解救的姜戈</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>导演: 昆汀·塔伦蒂诺 Quentin Tarantino   主演: 杰米·福克斯 Jamie Foxx /...2012 / 美国 / 剧情 动作 西部 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>未麻的部屋</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>导演: 今敏 Satoshi Kon   主演: 岩男润子 Junko Iwao / 松本梨香 Rica Matsu...1997 / 日本 / 动画 奇幻 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>恐怖直播</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>导演: 金秉祐 Byeong-woo Kim   主演: 河正宇 Jung-woo Ha / 李璟荣 Kyeong-y...2013 / 韩国 / 剧情 犯罪 悬疑</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>哪吒闹海</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>导演: 王树忱 Shuchen Wang / 严定宪 Dingxian Yan   主演: 梁正晖 Zhenghui ...1979 / 中国大陆 / 冒险 动画 奇幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>我是山姆</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>导演: 杰茜·尼尔森 Jessie Nelson   主演: Sean Penn / Dakota Fanning / Mi...2001 / 美国 / 剧情 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>哈利·波特与火焰杯</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>导演: 迈克·内威尔 Mike Newell   主演: 丹尼尔·雷德克里夫 Daniel Radclif...2005 / 英国 美国 / 悬疑 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>血战钢锯岭</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>导演: 梅尔·吉布森 Mel Gibson   主演: 安德鲁·加菲尔德 Andrew Garfield /...2016 / 澳大利亚 美国 / 剧情 传记 历史 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>头号玩家</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>导演: 史蒂文·斯皮尔伯格 Steven Spielberg   主演: 泰伊·谢里丹 Tye Sheri...2018 / 美国 / 动作 科幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>新世界</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>导演: 朴勋政 Hoon-jung Park   主演: 李政宰 Jung-Jae Lee / 崔岷植 Min-sik...2013 / 韩国 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>模仿游戏</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>导演: 莫滕·泰杜姆 Morten Tyldum   主演: 本尼迪克特·康伯巴奇 Benedict C...2014 / 英国 美国 / 剧情 传记 战争 同性</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>七武士</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>导演: 黑泽明 Akira Kurosawa   主演: 三船敏郎 Toshirô Mifune / 志村乔 ...1954 / 日本 / 动作 冒险 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>喜宴</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>导演: 李安 Ang Lee   主演: 赵文瑄 Winston Chao / 郎雄 Sihung Lung / 归亚...1993 / 中国台湾 美国 / 剧情 喜剧 爱情 同性 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>黑客帝国3：矩阵革命</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>导演: 拉娜·沃卓斯基 Lana Wachowski / 莉莉·沃卓斯基 Lilly Wachowski   ...2003 / 美国 / 动作 科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>花样年华</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>导演: 王家卫 Kar Wai Wong   主演: 梁朝伟 Tony Leung Chiu Wai / 张曼玉 Ma...2000 / 中国香港 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>头脑特工队</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>导演: 彼特·道格特 Pete Docter / 罗纳尔多·德尔·卡门 Ronaldo Del Carmen  &amp;nb...2015 / 美国 / 喜剧 动画 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>电锯惊魂</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>导演: 詹姆斯·温 James Wan   主演: 雷·沃纳尔 Leigh Whannell / 加利·艾...2004 / 美国 / 悬疑 惊悚 恐怖</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>三块广告牌</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>导演: 马丁·麦克唐纳 Martin McDonagh   主演: 弗兰西斯·麦克多蒙德 France...2017 / 美国 英国 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>卢旺达饭店</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>导演: 特瑞·乔治 Terry George   主演: 唐·钱德尔 Don Cheadle / 苏菲·奥...2004 / 英国 南非 意大利 美国 / 剧情 传记 历史 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>你的名字。</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>导演: 新海诚 Makoto Shinkai   主演: 神木隆之介 Ryûnosuke Kamiki / 上...2016 / 日本 / 剧情 爱情 动画</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>达拉斯买家俱乐部</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>导演: 让-马克·瓦雷 Jean-Marc Vallée   主演: 马修·麦康纳 Matthew McCon...2013 / 美国 / 剧情 传记 同性</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>疯狂原始人</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>导演: 科克·德·米科 Kirk De Micco / 克里斯·桑德斯 Chris Sanders   主演...2013 / 美国 / 喜剧 动画 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>上帝之城</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>导演: 费尔南多·梅里尔斯 Fernando Meirelles / 卡迪亚·兰德 Kátia Lund  &amp;nbsp...2002 / 巴西 法国 / 犯罪 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>谍影重重3</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>导演: 保罗·格林格拉斯 Paul Greengrass   主演: 马特·达蒙 Matt Damon / ...2007 / 美国 德国 / 动作 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>英雄本色</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>导演: 吴宇森 John Woo   主演: 周润发 Yun-Fat Chow / 狄龙 Lung Ti / 张国...1986 / 中国香港 / 剧情 动作 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>风之谷</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>导演: 宫崎骏 Hayao Miyazaki   主演: 岛本须美 Sumi Shimamoto / 松田洋治 Y...1984 / 日本 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>心迷宫</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>导演: 忻钰坤 Yukun Xin   主演: 霍卫民 Weimin Huo / 王笑天 Xiaotian Wang ...2014 / 中国大陆 / 剧情 犯罪 悬疑</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>九品芝麻官</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>导演: 王晶 Jing Wong   主演: 周星驰 Stephen Chow / 吴孟达 Man Tat Ng / ...1994 / 中国香港 中国大陆 / 剧情 喜剧 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>惊魂记</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>导演: 阿尔弗雷德·希区柯克 Alfred Hitchcock   主演: 安东尼·博金斯 Antho...1960 / 美国 / 悬疑 惊悚 恐怖</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>纵横四海</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>导演: 吴宇森 John Woo   主演: 周润发 Yun-Fat Chow / 张国荣 Leslie Cheung...1991 / 中国香港 / 剧情 喜剧 动作 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>海街日记</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>导演: 是枝裕和 Hirokazu Koreeda   主演: 绫濑遥 Haruka Ayase / 长泽雅美 M...2015 / 日本 / 剧情 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>岁月神偷</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>导演: 罗启锐 Alex Law   主演: 吴君如 Sandra Ng / 任达华 Simon Yam / 钟绍...2010 / 中国香港 中国大陆 / 剧情 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>记忆碎片</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>导演: 克里斯托弗·诺兰 Christopher Nolan   主演: 盖·皮尔斯 Guy Pearce /...2000 / 美国 / 犯罪 剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>忠犬八公物语</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>导演: Seijirô Kôyama   主演: 山本圭 Kei Yamamoto / 井川比佐志 Hisa...1987 / 日本 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>荒蛮故事</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>导演: 达米安·斯兹弗隆 Damián Szifron   主演: 达里奥·葛兰帝内提 Darío...2014 / 阿根廷 西班牙 / 剧情 喜剧 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>爱在午夜降临前</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>导演: 理查德·林克莱特 Richard Linklater   主演: 伊桑·霍克 Ethan Hawke ...2013 / 美国 希腊 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>绿里奇迹</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>导演: Frank Darabont   主演: 汤姆·汉克斯 Tom Hanks / 大卫·摩斯 David M...1999 / 美国 / 犯罪 剧情 奇幻 悬疑</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>爆裂鼓手</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>导演: 达米恩·查泽雷 Damien Chazelle   主演: 迈尔斯·特勒 Miles Teller /...2014 / 美国 / 剧情 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>小偷家族</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>导演: 是枝裕和 Hirokazu Koreeda   主演: 中川雅也 Lily Franky / 安藤樱 Sa...2018 / 日本 / 剧情 犯罪 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>贫民窟的百万富翁</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>导演: 丹尼·鲍尔 Danny Boyle / 洛芙琳·坦丹 Loveleen Tandan   主演: 戴夫...2008 / 英国 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>色，戒</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>导演: 李安 Ang Lee   主演: 梁朝伟 Tony Leung Chiu Wai / 汤唯 Wei Tang / ...2007 / 中国台湾 中国大陆 美国 中国香港 / 剧情 爱情 情色</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>真爱至上</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>导演: 理查德·柯蒂斯 Richard Curtis   主演: 休·格兰特 Hugh Grant / 柯林...2003 / 英国 美国 法国 / 喜剧 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>无敌破坏王</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>导演: 瑞奇·莫尔 Rich Moore   主演: 约翰·C·赖利 John C. Reilly / 萨拉...2012 / 美国 / 喜剧 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>东邪西毒</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>导演: 王家卫 Kar Wai Wong   主演: 张国荣 Leslie Cheung / 林青霞 Brigitte...1994 / 中国香港 中国台湾 / 剧情 动作 爱情 武侠 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>疯狂的石头</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>导演: 宁浩 Hao Ning   主演: 郭涛 Tao Guo / 刘桦 Hua Liu / 连晋 Teddy Lin2006 / 中国大陆 中国香港 / 喜剧 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>冰川时代</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>导演: 卡洛斯·沙尔丹哈 Carlos Saldanha / 克里斯·韦奇 Chris Wedge   主演...2002 / 美国 / 喜剧 动画 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>雨中曲</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>导演: 斯坦利·多南 Stanley Donen / 吉恩·凯利 Gene Kelly   主演: 吉恩·...1952 / 美国 / 喜剧 歌舞 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>黑天鹅</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>导演: 达伦·阿罗诺夫斯基 Darren Aronofsky   主演: 娜塔莉·波特曼 Natalie...2010 / 美国 / 剧情 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>你看起来好像很好吃</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>导演: 藤森雅也 Masaya Fujimori   主演: 山口胜平 Kappei Yamaguchi / 爱河...2010 / 日本 / 剧情 动画 儿童</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>恐怖游轮</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>导演: 克里斯托弗·史密斯 Christopher Smith   主演: 梅利莎·乔治 Melissa ...2009 / 英国 澳大利亚 / 剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2001太空漫游</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>导演: 斯坦利·库布里克 Stanley Kubrick   主演: 凯尔·杜拉 Keir Dullea / ...1968 / 英国 美国 / 科幻 惊悚 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>茶馆</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>导演: 谢添 Tian Xie   主演: 于是之 Shizhi Yu / 郑榕 Rong Zhen / 蓝天野 T...1982(中国大陆) / 中国大陆 / 剧情 历史</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>雨人</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>导演: 巴瑞·莱文森 Barry Levinson   主演: 达斯汀·霍夫曼 Dustin Hoffman ...1988 / 美国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>恋恋笔记本</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>导演: 尼克·卡索维茨 Nick Cassavetes   主演: 瑞恩·高斯林 Ryan Gosling /...2004 / 美国 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>魔女宅急便</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>导演: 宫崎骏 Hayao Miyazaki   主演: 高山南 Minami Takayama / 佐久间玲 Re...1989 / 日本 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>遗愿清单</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>导演: 罗伯·莱纳 Rob Reiner   主演: 杰克·尼科尔森 Jack Nicholson / 摩根...2007 / 美国 / 冒险 喜剧 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>城市之光</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>导演: Charles Chaplin   主演: 查理·卓别林 Charles Chaplin / 弗吉尼亚·...1931 / 美国 / 喜剧 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>大佛普拉斯</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>导演: 黄信尧 Hsin-yao Huang   主演: 庄益增 Yizeng Zhuang / 陈竹昇 Chu-sh...2017 / 中国台湾 / 剧情 喜剧</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>可可西里</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>导演: 陆川 Chuan Lu   主演: 多布杰 Duobujie / 张磊 Lei Zhang / 亓亮 Qi L...2004 / 中国大陆 中国香港 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>萤火虫之墓</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>导演: 高畑勋 Isao Takahata   主演: 辰己努 / 白石绫乃 / 志乃原良子1988 / 日本 / 动画 剧情 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>无间道2</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>导演: 刘伟强 / 麦兆辉   主演: 陈冠希 / 余文乐 / 曾志伟2003 / 中国香港 / 剧情 犯罪 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>牯岭街少年杀人事件</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>导演: 杨德昌 Edward Yang   主演: 张震 Chen Chang / 杨静怡 Lisa Yang / 张...1991 / 中国台湾 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>虎口脱险</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>导演: 杰拉尔·乌里 Gérard Oury   主演: 路易·德·菲耐斯 Louis de Funès...1966 / 法国 英国 / 喜剧 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>源代码</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>导演: 邓肯·琼斯 Duncan Jones   主演: 杰克·吉伦哈尔 Jake Gyllenhaal / ...2011 / 美国 加拿大 / 科幻 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>导演: 史蒂文·斯皮尔伯格 Steven Spielberg   主演: 海利·乔·奥斯蒙 Haley...2001 / 美国 英国 / 剧情 科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>初恋这件小事</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>导演: 普特鹏·普罗萨卡·那·萨克那卡林 Puttipong Promsaka Na Sakolnakorn / 华森·波克彭...2010 / 泰国 / 剧情 喜剧 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>背靠背，脸对脸</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>导演: 黄建新 Jianxin Huang / 杨亚洲 Yazhou Yang   主演: 牛振华 Zhenhua N...1994 / 中国大陆 中国香港 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>海边的曼彻斯特</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>导演: 肯尼斯·罗纳根 Kenneth Lonergan   主演: 卡西·阿弗莱克 Casey Affle...2016 / 美国 / 剧情 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>东京教父</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>导演: 今敏 Satoshi Kon   主演: 江守彻 Toru Emori / 梅垣义明 Yoshiaki Ume...2003 / 日本 / 剧情 喜剧 动画</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>小丑</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>导演: 托德·菲利普斯 Todd Phillips   主演: 杰昆·菲尼克斯 Joaquin Phoeni...2019 / 美国 加拿大 / 剧情 犯罪 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>罗生门</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>导演: 黑泽明 Akira Kurosawa   主演: 三船敏郎 Toshirô Mifune / 京町子 ...1950 / 日本 / 剧情 犯罪 悬疑</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>终结者2：审判日</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>导演: 詹姆斯·卡梅隆 James Cameron   主演: 阿诺·施瓦辛格 Arnold Schwarz...1991 / 美国 法国 / 动作 科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>青蛇</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>导演: 徐克 Hark Tsui   主演: 张曼玉 Maggie Cheung / 王祖贤 Joey Wang / ...1993 / 中国香港 中国大陆 / 剧情 爱情 奇幻 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>奇迹男孩</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>导演: 斯蒂芬·卓博斯基 Stephen Chbosky   主演: 雅各布·特伦布莱 Jacob Tr...2017 / 美国 中国香港 / 剧情 儿童 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>二十二</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>导演: 郭柯 Ke Guo   主演:2015 / 中国大陆 / 纪录片</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>波西米亚狂想曲</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>导演: 布莱恩·辛格 Bryan Singer   主演: 拉米·马雷克 Rami Malek / 本·哈...2018 / 英国 美国 / 剧情 传记 同性 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>房间</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>导演: 伦尼·阿伯拉罕森 Lenny Abrahamson   主演: 布丽·拉尔森 Brie Larson...2015 / 爱尔兰 加拿大 英国 美国 / 剧情 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>疯狂的麦克斯4：狂暴之路</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>导演: 乔治·米勒 George Miller   主演: 汤姆·哈迪 Tom Hardy / 查理兹·塞...2015 / 澳大利亚 美国 / 动作 科幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>新龙门客栈</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>导演: 李惠民 Raymond Lee   主演: 张曼玉 Maggie Cheung / 林青霞 Brigitte ...1992 / 中国香港 中国大陆 / 动作 爱情 武侠 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>无耻混蛋</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>导演: Quentin Tarantino   主演: 布拉德·皮特 Brad Pitt / 梅拉尼·罗兰 M...2009 / 德国 美国 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>魂断蓝桥</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>导演: 茂文·勒鲁瓦 Mervyn LeRoy   主演: 费雯·丽 Vivien Leigh / 罗伯特·...1940 / 美国 / 剧情 爱情 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>血钻</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>导演: 爱德华·兹威克 Edward Zwick   主演: 莱昂纳多·迪卡普里奥 Leonardo ...2006 / 美国 德国 英国 / 剧情 惊悚 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>千钧一发</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>导演: 安德鲁·尼科尔 Andrew Niccol   主演: 伊桑·霍克 Ethan Hawke / 乌玛...1997 / 美国 / 剧情 科幻 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>步履不停</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>导演: 是枝裕和 Hirokazu Koreeda   主演: 阿部宽 Hiroshi Abe / 夏川结衣 Yu...2008 / 日本 / 剧情 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>黑客帝国2：重装上阵</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>导演: 拉娜·沃卓斯基 Lana Wachowski / 莉莉·沃卓斯基 Lilly Wachowski   ...2003 / 美国 / 动作 科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>彗星来的那一夜</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>导演: 詹姆斯·沃德·布柯特 James Ward Byrkit   主演: 艾米丽·芭尔多尼 Em...2013 / 美国 英国 / 科幻 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>战争之王</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>导演: 安德鲁·尼科尔 Andrew Niccol   主演: 尼古拉斯·凯奇 Nicolas Cage /...2005 / 法国 德国 美国 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>崖上的波妞</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>导演: 宫崎骏 Hayao Miyazaki   主演: 奈良柚莉爱 Yuria Nara / 土井洋辉 Hir...2008 / 日本 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>心灵奇旅</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>导演: 彼特·道格特 Pete Docter / 凯普·鲍尔斯 Kemp Powers   主演: 杰米·...2020 / 美国 / 动画 奇幻 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>爱乐之城</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>导演: 达米恩·查泽雷 Damien Chazelle   主演: 瑞恩·高斯林 Ryan Gosling /...2016 / 美国 / 剧情 爱情 歌舞</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>谍影重重2</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>导演: 保罗·格林格拉斯 Paul Greengrass   主演: 马特·达蒙 Matt Damon / ...2004 / 美国 德国 / 动作 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>燃情岁月</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>导演: 爱德华·兹威克 Edward Zwick   主演: 布拉德·皮特 Brad Pitt / 安东...1994 / 美国 / 剧情 爱情 战争 西部</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>阿飞正传</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>导演: 王家卫 Kar Wai Wong   主演: 张国荣 Leslie Cheung / 张曼玉 Maggie C...1990 / 中国香港 / 犯罪 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>海洋</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>导演: 雅克·贝汉 Jacques Perrin / 雅克·克鲁奥德 Jacques Cluzaud   主演:...2009 / 法国 瑞士 西班牙 美国 阿联酋 摩纳哥 / 纪录片</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>谍影重重</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>导演: 道格·里曼 Doug Liman   主演: 马特·达蒙 Matt Damon / 弗兰卡·波坦...2002 / 美国 德国 捷克 / 动作 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>再次出发之纽约遇见你</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>导演: 约翰·卡尼 John Carney   主演: 凯拉·奈特莉 Keira Knightley / 马克...2013 / 美国 / 喜剧 爱情 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>火星救援</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>导演: 雷德利·斯科特 Ridley Scott   主演: 马特·达蒙 Matt Damon / 杰西卡...2015 / 英国 美国 匈牙利 约旦 / 剧情 科幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>末路狂花</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>导演: 雷德利·斯科特 Ridley Scott   主演: 吉娜·戴维斯 Geena Davis / 苏...1991 / 美国 英国 法国 / 犯罪 剧情 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>穿越时空的少女</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>导演: 细田守 Mamoru Hosoda   主演: 仲里依纱 Riisa Naka / 石田卓也 Takuya...2006 / 日本 / 剧情 爱情 科幻 动画</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>朗读者</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>导演: 史蒂芬·戴德利 Stephen Daldry   主演: 凯特·温丝莱特 Kate Winslet ...2008 / 美国 德国 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>香水</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>导演: 汤姆·提克威 Tom Tykwer   主演: 本·卫肖 Ben Whishaw / 艾伦·瑞克...2006 / 德国 法国 西班牙 美国 比利时 / 剧情 犯罪 奇幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>地球上的星星</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>导演: 阿米尔·汗 Aamir Khan   主演: 达席尔·萨法瑞 Darsheel Safary / 阿...2007 / 印度 / 剧情 儿童 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>我爱你</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>导演: 秋昌民 Chang-min Choo   主演: 宋在河 Jae-ho Song / 李顺载 Soon-jae...2011 / 韩国 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>完美陌生人</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>导演: 保罗·格诺维瑟 Paolo Genovese   主演: 马可·贾利尼 Marco Giallini ...2016 / 意大利 / 剧情 喜剧</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>千年女优</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>导演: 今敏 Satoshi Kon   主演: 庄司美代子 Miyoko Shôji / 小山茉美 Mam...2001 / 日本 / 动画 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>驴得水</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>导演: 周申 Shen Zhou / 刘露 Lu Liu   主演: 任素汐 Suxi Ren / 大力 Da Li ...2016 / 中国大陆 / 剧情 喜剧</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>聚焦</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>导演: 托马斯·麦卡锡 Thomas McCarthy   主演: 马克·鲁弗洛 Mark Ruffalo /...2015 / 美国 / 剧情 传记</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>浪潮</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>导演: 丹尼斯·甘塞尔 Dennis Gansel   主演: 尤尔根·沃格尔 Jürgen Vogel ...2008 / 德国 / 剧情 惊悚</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C251"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>电影名称</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>评分</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>资料</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>肖申克的救赎</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>导演: 弗兰克·德拉邦特 Frank Darabont   主演: 蒂姆·罗宾斯 Tim Robbins /...1994 / 美国 / 犯罪 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>霸王别姬</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>导演: 陈凯歌 Kaige Chen   主演: 张国荣 Leslie Cheung / 张丰毅 Fengyi Zha...1993 / 中国大陆 中国香港 / 剧情 爱情 同性</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>阿甘正传</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>导演: 罗伯特·泽米吉斯 Robert Zemeckis   主演: 汤姆·汉克斯 Tom Hanks / ...1994 / 美国 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>泰坦尼克号</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>导演: 詹姆斯·卡梅隆 James Cameron   主演: 莱昂纳多·迪卡普里奥 Leonardo...1997 / 美国 墨西哥 澳大利亚 加拿大 / 剧情 爱情 灾难</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>这个杀手不太冷</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>导演: 吕克·贝松 Luc Besson   主演: 让·雷诺 Jean Reno / 娜塔莉·波特曼 ...1994 / 法国 美国 / 剧情 动作 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>美丽人生</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>导演: 罗伯托·贝尼尼 Roberto Benigni   主演: 罗伯托·贝尼尼 Roberto Beni...1997 / 意大利 / 剧情 喜剧 爱情 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>千与千寻</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>导演: 宫崎骏 Hayao Miyazaki   主演: 柊瑠美 Rumi Hîragi / 入野自由 Miy...2001 / 日本 / 剧情 动画 奇幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>辛德勒的名单</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>导演: 史蒂文·斯皮尔伯格 Steven Spielberg   主演: 连姆·尼森 Liam Neeson...1993 / 美国 / 剧情 历史 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>盗梦空间</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>导演: 克里斯托弗·诺兰 Christopher Nolan   主演: 莱昂纳多·迪卡普里奥 Le...2010 / 美国 英国 / 剧情 科幻 悬疑 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>忠犬八公的故事</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>导演: 莱塞·霍尔斯道姆 Lasse Hallström   主演: 理查·基尔 Richard Ger...2009 / 美国 英国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>星际穿越</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>导演: 克里斯托弗·诺兰 Christopher Nolan   主演: 马修·麦康纳 Matthew Mc...2014 / 美国 英国 加拿大 / 剧情 科幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>楚门的世界</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>导演: 彼得·威尔 Peter Weir   主演: 金·凯瑞 Jim Carrey / 劳拉·琳妮 Lau...1998 / 美国 / 剧情 科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>海上钢琴师</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>导演: 朱塞佩·托纳多雷 Giuseppe Tornatore   主演: 蒂姆·罗斯 Tim Roth / ...1998 / 意大利 / 剧情 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>三傻大闹宝莱坞</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>导演: 拉库马·希拉尼 Rajkumar Hirani   主演: 阿米尔·汗 Aamir Khan / 卡...2009 / 印度 / 剧情 喜剧 爱情 歌舞</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>机器人总动员</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>导演: 安德鲁·斯坦顿 Andrew Stanton   主演: 本·贝尔特 Ben Burtt / 艾丽...2008 / 美国 / 科幻 动画 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>放牛班的春天</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>导演: 克里斯托夫·巴拉蒂 Christophe Barratier   主演: 让-巴蒂斯特·莫尼...2004 / 法国 瑞士 德国 / 剧情 喜剧 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>无间道</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>导演: 刘伟强 / 麦兆辉   主演: 刘德华 / 梁朝伟 / 黄秋生2002 / 中国香港 / 剧情 犯罪 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>疯狂动物城</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>导演: 拜伦·霍华德 Byron Howard / 瑞奇·摩尔 Rich Moore   主演: 金妮弗·...2016 / 美国 / 喜剧 动画 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>大话西游之大圣娶亲</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>导演: 刘镇伟 Jeffrey Lau   主演: 周星驰 Stephen Chow / 吴孟达 Man Tat Ng...1995 / 中国香港 中国大陆 / 喜剧 爱情 奇幻 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>熔炉</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>导演: 黄东赫 Dong-hyuk Hwang   主演: 孔侑 Yoo Gong / 郑有美 Yu-mi Jung /...2011 / 韩国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>控方证人</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>导演: 比利·怀尔德 Billy Wilder   主演: 泰隆·鲍华 Tyrone Power / 玛琳·...1957 / 美国 / 剧情 犯罪 悬疑</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>教父</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>导演: 弗朗西斯·福特·科波拉 Francis Ford Coppola   主演: 马龙·白兰度 M...1972 / 美国 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>当幸福来敲门</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>导演: 加布里尔·穆奇诺 Gabriele Muccino   主演: 威尔·史密斯 Will Smith ...2006 / 美国 / 剧情 传记 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>触不可及</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>导演: 奥利维·那卡什 Olivier Nakache / 艾力克·托兰达 Eric Toledano   主...2011 / 法国 / 剧情 喜剧</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>怦然心动</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>导演: 罗伯·莱纳 Rob Reiner   主演: 玛德琳·卡罗尔 Madeline Carroll / 卡...2010 / 美国 / 剧情 喜剧 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>龙猫</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>导演: 宫崎骏 Hayao Miyazaki   主演: 日高法子 Noriko Hidaka / 坂本千夏 Ch...1988 / 日本 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>末代皇帝</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>导演: 贝纳尔多·贝托鲁奇 Bernardo Bertolucci   主演: 尊龙 John Lone / 陈...1987 / 英国 意大利 中国大陆 法国 / 剧情 传记 历史</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>寻梦环游记</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>导演: 李·昂克里奇 Lee Unkrich / 阿德里安·莫利纳 Adrian Molina   主演: ...2017 / 美国 / 喜剧 动画 奇幻 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>蝙蝠侠：黑暗骑士</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>导演: 克里斯托弗·诺兰 Christopher Nolan   主演: 克里斯蒂安·贝尔 Christ...2008 / 美国 英国 / 剧情 动作 科幻 犯罪 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>活着</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>导演: 张艺谋 Yimou Zhang   主演: 葛优 You Ge / 巩俐 Li Gong / 姜武 Wu Jiang1994 / 中国大陆 中国香港 / 剧情 历史 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>哈利·波特与魔法石</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>导演: Chris Columbus   主演: Daniel Radcliffe / Emma Watson / Rupert Grint2001 / 美国 英国 / 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>指环王3：王者无敌</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>导演: 彼得·杰克逊 Peter Jackson   主演: 伊利亚·伍德 Elijah Wood / 西恩...2003 / 美国 新西兰 / 剧情 动作 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>乱世佳人</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>导演: 维克多·弗莱明 Victor Fleming / 乔治·库克 George Cukor   主演: 费...1939 / 美国 / 剧情 历史 爱情 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>素媛</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>导演: 李濬益 Jun-ik Lee   主演: 薛景求 Kyung-gu Sol / 严志媛 Ji-won Uhm ...2013 / 韩国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>飞屋环游记</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>导演: 彼特·道格特 Pete Docter / 鲍勃·彼德森 Bob Peterson   主演: 爱德...2009 / 美国 / 剧情 喜剧 动画 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>摔跤吧！爸爸</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>导演: 涅提·蒂瓦里 Nitesh Tiwari   主演: 阿米尔·汗 Aamir Khan / 法缇玛...2016 / 印度 / 剧情 传记 运动 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>我不是药神</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>导演: 文牧野 Muye Wen   主演: 徐峥 Zheng Xu / 王传君 Chuanjun Wang / 周...2018 / 中国大陆 / 剧情 喜剧</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>何以为家</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>导演: 娜丁·拉巴基 Nadine Labaki   主演: 扎因·拉费阿 Zain al-Rafeea / ...2018 / 黎巴嫩 美国 法国 塞浦路斯 卡塔尔 英国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>十二怒汉</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>导演: Sidney Lumet   主演: 亨利·方达 Henry Fonda / 马丁·鲍尔萨姆 Marti...1957 / 美国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>哈尔的移动城堡</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>导演: 宫崎骏 Hayao Miyazaki   主演: 倍赏千惠子 Chieko Baishô / 木村拓...2004 / 日本 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>少年派的奇幻漂流</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>导演: 李安 Ang Lee   主演: 苏拉·沙玛 Suraj Sharma / 伊尔凡·可汗 Irrfan...2012 / 美国 中国台湾 英国 加拿大 / 剧情 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>鬼子来了</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>导演: 姜文 Wen Jiang   主演: 姜文 Wen Jiang / 香川照之 Teruyuki Kagawa /...2000 / 中国大陆 / 剧情 喜剧</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>猫鼠游戏</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>导演: 史蒂文·斯皮尔伯格 Steven Spielberg   主演: 莱昂纳多·迪卡普里奥 L...2002 / 美国 加拿大 / 传记 犯罪 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>大话西游之月光宝盒</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>导演: 刘镇伟 Jeffrey Lau   主演: 周星驰 Stephen Chow / 吴孟达 Man Tat Ng...1995 / 中国香港 中国大陆 / 喜剧 爱情 奇幻 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>天空之城</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>导演: 宫崎骏 Hayao Miyazaki   主演: 田中真弓 Mayumi Tanaka / 横泽启子 Ke...1986 / 日本 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>闻香识女人</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>导演: 马丁·布莱斯 Martin Brest   主演: 阿尔·帕西诺 Al Pacino / 克里斯...1992 / 美国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>天堂电影院</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>导演: 朱塞佩·托纳多雷 Giuseppe Tornatore   主演: 菲利普·努瓦雷 Philipp...1988 / 意大利 法国 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>钢琴家</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>导演: 罗曼·波兰斯基 Roman Polanski   主演: 艾德里安·布洛迪 Adrien Brod...2002 / 英国 法国 波兰 德国 / 剧情 传记 战争 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>指环王2：双塔奇兵</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>导演: 彼得·杰克逊 Peter Jackson   主演: 伊利亚·伍德 Elijah Wood / 西恩...2002 / 美国 新西兰 / 剧情 动作 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>让子弹飞</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>导演: 姜文 Wen Jiang   主演: 姜文 Wen Jiang / 葛优 You Ge / 周润发 Yun-F...2010 / 中国大陆 中国香港 / 剧情 喜剧 动作 西部</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>罗马假日</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>导演: 威廉·惠勒 William Wyler   主演: 奥黛丽·赫本 Audrey Hepburn / 格...1953 / 美国 / 喜剧 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>海蒂和爷爷</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>导演: 阿兰·葛斯彭纳 Alain Gsponer   主演: 阿努克·斯特芬 Anuk Steffen /...2015 / 德国 瑞士 / 剧情 冒险 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>黑客帝国</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>导演: 安迪·沃卓斯基 Andy Wachowski / 拉娜·沃卓斯基 Lana Wachowski   主...1999 / 美国 / 动作 科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>指环王1：护戒使者</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>导演: 彼得·杰克逊 Peter Jackson   主演: 伊利亚·伍德 Elijah Wood / 西恩...2001 / 新西兰 美国 / 剧情 动作 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>大闹天宫</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>导演: 万籁鸣 Laiming Wan   主演: 邱岳峰 Yuefeng Qiu / 富润生 Runsheng Fu...1961(中国大陆) / 1964(中国大陆) / 1978(中国大陆) / 中国大陆 / 剧情 动画 奇幻 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>教父2</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>导演: 弗朗西斯·福特·科波拉 Francis Ford Coppola   主演: 阿尔·帕西诺 A...1974 / 美国 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>死亡诗社</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>导演: 彼得·威尔 Peter Weir   主演: 罗宾·威廉姆斯 Robin Williams / 罗伯...1989 / 美国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>辩护人</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>导演: 杨宇硕 Woo-seok Yang   主演: 宋康昊 Kang-ho Song / 金英爱 Yeong-ae...2013 / 韩国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>狮子王</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>导演: Roger Allers / 罗伯·明可夫 Rob Minkoff   主演: 乔纳森·泰勒·托马...1994 / 美国 / 动画 冒险 歌舞</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>绿皮书</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>导演: 彼得·法雷里 Peter Farrelly   主演: 维果·莫腾森 Viggo Mortensen /...2018 / 美国 中国大陆 / 剧情 喜剧 传记 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>搏击俱乐部</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>导演: 大卫·芬奇 David Fincher   主演: 爱德华·诺顿 Edward Norton / 布拉...1999 / 美国 德国 意大利 / 剧情 动作 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>饮食男女</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>导演: 李安 Ang Lee   主演: 郎雄 Sihung Lung / 杨贵媚 Kuei-Mei Yang / 吴...1994 / 中国台湾 美国 / 剧情 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>美丽心灵</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>导演: 朗·霍华德 Ron Howard   主演: 罗素·克劳 Russell Crowe / 艾德·哈...2001 / 美国 / 传记 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>本杰明·巴顿奇事</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>导演: 大卫·芬奇 David Fincher   主演: 凯特·布兰切特 Cate Blanchett / ...2008 / 美国 / 剧情 爱情 奇幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>窃听风暴</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>导演: 弗洛里安·亨克尔·冯·多纳斯马尔克 Florian Henckel von Donnersmarck  &amp;n...2006 / 德国 / 剧情 悬疑</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>情书</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>导演: 岩井俊二 Shunji Iwai   主演: 中山美穗 Miho Nakayama / 丰川悦司 Ets...1995 / 日本 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>穿条纹睡衣的男孩</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>导演: 马克·赫尔曼 Mark Herman   主演: 阿萨·巴特菲尔德 Asa Butterfield ...2008 / 英国 美国 / 剧情 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>两杆大烟枪</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>导演: Guy Ritchie   主演: Jason Flemyng / Dexter Fletcher / Nick Moran1998 / 英国 / 剧情 喜剧 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>西西里的美丽传说</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>导演: 朱塞佩·托纳多雷 Giuseppe Tornatore   主演: 莫妮卡·贝鲁奇 Monica ...2000 / 意大利 美国 / 剧情 战争 情色</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>看不见的客人</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>导演: 奥里奥尔·保罗 Oriol Paulo   主演: 马里奥·卡萨斯 Mario Casas / 阿...2016 / 西班牙 / 剧情 犯罪 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>拯救大兵瑞恩</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>导演: 史蒂文·斯皮尔伯格 Steven Spielberg   主演: 汤姆·汉克斯 Tom Hanks...1998 / 美国 / 剧情 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>音乐之声</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>导演: 罗伯特·怀斯 Robert Wise   主演: 朱莉·安德鲁斯 Julie Andrews / 克...1965 / 美国 / 剧情 传记 爱情 歌舞</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>飞越疯人院</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>导演: 米洛斯·福尔曼 Miloš Forman   主演: 杰克·尼科尔森 Jack Nichols...1975 / 美国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>小鞋子</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>导演: 马基德·马基迪 Majid Majidi   主演: 默罕默德·阿米尔·纳吉 Mohamma...1997 / 伊朗 / 剧情 儿童 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>阿凡达</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>导演: 詹姆斯·卡梅隆 James Cameron   主演: 萨姆·沃辛顿 Sam Worthington ...2009 / 美国 / 动作 科幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>哈利·波特与死亡圣器(下)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>导演: 大卫·叶茨 David Yates   主演: 丹尼尔·雷德克里夫 Daniel Radcliffe...2011 / 美国 英国 / 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>沉默的羔羊</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>导演: 乔纳森·戴米 Jonathan Demme   主演: 朱迪·福斯特 Jodie Foster / 安...1991 / 美国 / 剧情 犯罪 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>海豚湾</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>导演: 路易·西霍尤斯 Louie Psihoyos   主演: Richard O'Barry / 路易·西霍...2009 / 美国 / 纪录片</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>致命魔术</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>导演: 克里斯托弗·诺兰 Christopher Nolan   主演: 休·杰克曼 Hugh Jackman...2006 / 英国 美国 / 剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>禁闭岛</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>导演: Martin Scorsese   主演: 莱昂纳多·迪卡普里奥 Leonardo DiCaprio / ...2010 / 美国 / 剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>布达佩斯大饭店</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>导演: 韦斯·安德森 Wes Anderson   主演: 拉尔夫·费因斯 Ralph Fiennes / ...2014 / 美国 德国 英国 / 剧情 喜剧 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>蝴蝶效应</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>导演: 埃里克·布雷斯 Eric Bress / J·麦基·格鲁伯 J. Mackye Gruber   主...2004 / 美国 加拿大 / 剧情 悬疑 科幻 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>美国往事</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>导演: 赛尔乔·莱翁内 Sergio Leone   主演: 罗伯特·德尼罗 Robert De Niro ...1984 / 美国 意大利 / 犯罪 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>心灵捕手</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>导演: 格斯·范·桑特 Gus Van Sant   主演: 马特·达蒙 Matt Damon / 罗宾·...1997 / 美国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>低俗小说</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>导演: 昆汀·塔伦蒂诺 Quentin Tarantino   主演: 约翰·特拉沃尔塔 John Tra...1994 / 美国 / 剧情 喜剧 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>春光乍泄</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>导演: 王家卫 Kar Wai Wong   主演: 张国荣 Leslie Cheung / 梁朝伟 Tony Leu...1997 / 中国香港 日本 韩国 / 剧情 爱情 同性</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>摩登时代</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>导演: 查理·卓别林 Charles Chaplin   主演: 查理·卓别林 Charles Chaplin ...1936 / 美国 / 剧情 喜剧 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>七宗罪</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>导演: 大卫·芬奇 David Fincher   主演: 摩根·弗里曼 Morgan Freeman / 布...1995 / 美国 / 剧情 犯罪 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>喜剧之王</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>导演: 周星驰 Stephen Chow / 李力持 Lik-Chi Lee   主演: 周星驰 Stephen Ch...1999 / 中国香港 / 喜剧 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>致命ID</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>导演: 詹姆斯·曼高德 James Mangold   主演: 约翰·库萨克 John Cusack / 雷...2003 / 美国 / 剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>杀人回忆</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>导演: 奉俊昊 Joon-ho Bong   主演: 宋康昊 Kang-ho Song / 金相庆 Sang-kyun...2003 / 韩国 / 剧情 动作 犯罪 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>功夫</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>导演: 周星驰 Stephen Chow   主演: 周星驰 Stephen Chow / 元秋 Qiu Yuen / ...2004 / 中国大陆 中国香港 / 动作 喜剧 犯罪 奇幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>超脱</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>导演: 托尼·凯耶 Tony Kaye   主演: 艾德里安·布洛迪 Adrien Brody / 马西...2011 / 美国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>哈利·波特与阿兹卡班的囚徒</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>导演: Alfonso Cuarón   主演: 丹尼尔·雷德克里夫 Daniel Radcliffe / Emma...2004 / 英国 美国 / 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>加勒比海盗</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>导演: 戈尔·维宾斯基 Gore Verbinski   主演: 约翰尼·德普 Johnny Depp / ...2003 / 美国 / 动作 冒险 奇幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>被嫌弃的松子的一生</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>导演: 中岛哲也 Tetsuya Nakashima   主演: 中谷美纪 Miki Nakatani / 瑛太 E...2006 / 日本 / 剧情 歌舞</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>红辣椒</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>导演: 今敏 Satoshi Kon   主演: 林原惠美 Megumi Hayashibara / 江守彻 Toru...2006 / 日本 / 动画 悬疑 科幻 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>狩猎</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>导演: 托马斯·温特伯格 Thomas Vinterberg   主演: 麦斯·米科尔森 Mads Mik...2012 / 丹麦 瑞典 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>请以你的名字呼唤我</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>导演: 卢卡·瓜达尼诺 Luca Guadagnino   主演: 艾米·汉莫 Armie Hammer / ...2017 / 意大利 法国 巴西 美国 / 剧情 爱情 同性</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>7号房的礼物</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>导演: 李焕庆 Hwan-kyeong Lee   主演: 柳承龙 Seung-yong Ryoo / 朴信惠 Shi...2013 / 韩国 / 剧情 喜剧 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>剪刀手爱德华</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>导演: 蒂姆·波顿 Tim Burton   主演: 约翰尼·德普 Johnny Depp / 薇诺娜·...1990 / 美国 / 剧情 奇幻 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>勇敢的心</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>导演: 梅尔·吉布森 Mel Gibson   主演: 梅尔·吉布森 Mel Gibson / 苏菲·玛...1995 / 美国 / 动作 传记 剧情 历史 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>断背山</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>导演: 李安 Ang Lee   主演: 希斯·莱杰 Heath Ledger / 杰克·吉伦哈尔 Jake...2005 / 美国 加拿大 / 剧情 爱情 同性 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>唐伯虎点秋香</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>导演: 李力持 Lik-Chi Lee   主演: 周星驰 Stephen Chow / 巩俐 Li Gong / 陈...1993 / 中国香港 / 喜剧 爱情 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>入殓师</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>导演: 泷田洋二郎 Yôjirô Takita   主演: 本木雅弘 Masahiro Motoki / ...2008 / 日本 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>第六感</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>导演: M·奈特·沙马兰 M. Night Shyamalan   主演: 布鲁斯·威利斯 Bruce Wi...1999 / 美国 / 剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>天使爱美丽</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>导演: 让-皮埃尔·热内 Jean-Pierre Jeunet   主演: 奥黛丽·塔图 Audrey Tau...2001 / 法国 德国 / 剧情 喜剧 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>哈利·波特与密室</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>导演: Chris Columbus   主演: 丹尼尔·雷德克里夫 Daniel Radcliffe / 艾玛...2002 / 英国 美国 / 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>爱在黎明破晓前</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>导演: 理查德·林克莱特 Richard Linklater   主演: 伊桑·霍克 Ethan Hawke ...1995 / 美国 奥地利 瑞士 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>重庆森林</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>导演: 王家卫 Kar Wai Wong   主演: 林青霞 Brigitte Lin / 金城武 Takeshi K...1994 / 中国香港 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>一一</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>导演: 杨德昌 Edward Yang   主演: 吴念真 / 李凯莉 Kelly Lee / 金燕玲 Elai...2000 / 中国台湾 日本 / 剧情 爱情 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>幽灵公主</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>导演: 宫崎骏 Hayao Miyazaki   主演: 松田洋治 Yôji Matsuda / 石田百合...1997 / 日本 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>蝙蝠侠：黑暗骑士崛起</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>导演: 克里斯托弗·诺兰 Christopher Nolan   主演: 克里斯蒂安·贝尔 Christ...2012 / 美国 英国 / 剧情 动作 科幻 犯罪 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>小森林 夏秋篇</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>导演: 森淳一 Junichi Mori   主演: 桥本爱 Ai Hashimoto / 三浦贵大 Takahir...2014 / 日本 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>阳光灿烂的日子</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>导演: 姜文 Wen Jiang   主演: 夏雨 Yu Xia / 宁静 Jing Ning / 陶虹 Hong Tao1994 / 中国大陆 中国香港 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>菊次郎的夏天</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>导演: 北野武 Takeshi Kitano   主演: 北野武 Takeshi Kitano / 关口雄介 Yus...1999 / 日本 / 剧情 喜剧</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>超能陆战队</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>导演: 唐·霍尔 Don Hall / 克里斯·威廉姆斯 Chris Williams   主演: 斯科特...2014 / 美国 / 喜剧 动作 科幻 动画 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>完美的世界</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>导演: 克林特·伊斯特伍德 Clint Eastwood   主演: 凯文·科斯特纳 Kevin Cos...1993 / 美国 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>无人知晓</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>导演: 是枝裕和 Hirokazu Koreeda   主演: 柳乐优弥 Yûya Yagira / 北浦爱...2004 / 日本 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>爱在日落黄昏时</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>导演: 理查德·林克莱特 Richard Linklater   主演: 伊桑·霍克 Ethan Hawke ...2004 / 美国 法国 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>消失的爱人</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>导演: 大卫·芬奇 David Fincher   主演: 本·阿弗莱克 Ben Affleck / 罗莎蒙...2014 / 美国 / 剧情 犯罪 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>小森林 冬春篇</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>导演: 森淳一 Junichi Mori   主演: 桥本爱 Ai Hashimoto / 三浦贵大 Takahir...2015 / 日本 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>借东西的小人阿莉埃蒂</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>导演: 米林宏昌 Hiromasa Yonebayashi   主演: 志田未来 Mirai Shida / 神木...2010 / 日本 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>倩女幽魂</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>导演: 程小东 Siu-Tung Ching   主演: 张国荣 Leslie Cheung / 王祖贤 Joey W...1987 / 中国香港 / 爱情 奇幻 武侠 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>甜蜜蜜</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>导演: 陈可辛 Peter Chan   主演: 黎明 Leon Lai / 张曼玉 Maggie Cheung / ...1996 / 中国香港 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>侧耳倾听</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>导演: 近藤喜文 Yoshifumi Kondo   主演: 本名阳子 Youko Honna / 小林桂树 K...1995 / 日本 / 剧情 爱情 动画</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>幸福终点站</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>导演: 史蒂文·斯皮尔伯格 Steven Spielberg   主演: 汤姆·汉克斯 Tom Hanks...2004 / 美国 / 喜剧 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>时空恋旅人</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>导演: 理查德·柯蒂斯 Richard Curtis   主演: 多姆纳尔·格里森 Domhnall Gl...2013 / 英国 / 喜剧 爱情 奇幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>驯龙高手</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>导演: 迪恩·德布洛斯 Dean DeBlois / 克里斯·桑德斯 Chris Sanders   主演:...2010 / 美国 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>萤火之森</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>导演: 大森贵弘 Takahiro Omori   主演: 佐仓绫音 Ayane Sakura / 内山昂辉 K...2011 / 日本 / 剧情 爱情 动画 奇幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>玛丽和马克思</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>导演: 亚当·艾略特 Adam Elliot   主演: 托妮·科莱特 Toni Collette / 菲利...2009 / 澳大利亚 美国 / 剧情 喜剧 动画</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>怪兽电力公司</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>导演: 彼特·道格特 Pete Docter / 大卫·斯沃曼 David Silverman   主演: 约...2001 / 美国 / 儿童 喜剧 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>教父3</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>导演: 弗朗西斯·福特·科波拉 Francis Ford Coppola   主演: 阿尔·帕西诺 A...1990 / 美国 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>一个叫欧维的男人决定去死</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>导演: 汉内斯·赫尔姆 Hannes Holm   主演: 罗夫·拉斯加德 Rolf Lassgård...2015 / 瑞典 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>大鱼</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>导演: 蒂姆·波顿 Tim Burton   主演: 伊万·麦克格雷格 Ewan McGregor / 阿...2003 / 美国 / 剧情 家庭 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>玩具总动员3</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>导演: 李·昂克里奇 Lee Unkrich   主演: 汤姆·汉克斯 Tom Hanks / 蒂姆·艾...2010 / 美国 / 喜剧 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>告白</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>导演: 中岛哲也 Tetsuya Nakashima   主演: 松隆子 Takako Matsu / 冈田将生 ...2010 / 日本 / 剧情 悬疑</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>傲慢与偏见</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>导演: 乔·怀特 Joe Wright   主演: 凯拉·奈特莉 Keira Knightley / 马修·...2005 / 法国 英国 美国 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>神偷奶爸</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>导演: 皮艾尔·柯芬 Pierre Coffin / 克里斯·雷纳德 Chris Renaud   主演: ...2010 / 美国 法国 / 喜剧 动画 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>寄生虫</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>导演: 奉俊昊 Joon-ho Bong   主演: 宋康昊 Kang-ho Song / 李善均 Seon-gyun...2019 / 韩国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>釜山行</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>导演: 延尚昊 Sang-ho Yeon   主演: 孔侑 Yoo Gong / 郑有美 Yu-mi Jung / 马...2016 / 韩国 / 动作 惊悚 灾难</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>阳光姐妹淘</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>导演: 姜炯哲 Hyeong-Cheol Kang   主演: 沈恩京 Eun-kyung Shim / 闵孝琳 Hy...2011 / 韩国 / 剧情 喜剧</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>射雕英雄传之东成西就</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>导演: 刘镇伟 Jeffrey Lau   主演: 梁朝伟 Tony Leung Chiu Wai / 林青霞 Bri...1993 / 中国香港 / 喜剧 奇幻 武侠 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>被解救的姜戈</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>导演: 昆汀·塔伦蒂诺 Quentin Tarantino   主演: 杰米·福克斯 Jamie Foxx /...2012 / 美国 / 剧情 动作 西部 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>未麻的部屋</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>导演: 今敏 Satoshi Kon   主演: 岩男润子 Junko Iwao / 松本梨香 Rica Matsu...1997 / 日本 / 动画 奇幻 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>恐怖直播</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>导演: 金秉祐 Byeong-woo Kim   主演: 河正宇 Jung-woo Ha / 李璟荣 Kyeong-y...2013 / 韩国 / 剧情 犯罪 悬疑</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>哪吒闹海</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>导演: 王树忱 Shuchen Wang / 严定宪 Dingxian Yan   主演: 梁正晖 Zhenghui ...1979 / 中国大陆 / 冒险 动画 奇幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>我是山姆</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>导演: 杰茜·尼尔森 Jessie Nelson   主演: Sean Penn / Dakota Fanning / Mi...2001 / 美国 / 剧情 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>哈利·波特与火焰杯</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>导演: 迈克·内威尔 Mike Newell   主演: 丹尼尔·雷德克里夫 Daniel Radclif...2005 / 英国 美国 / 悬疑 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>血战钢锯岭</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>导演: 梅尔·吉布森 Mel Gibson   主演: 安德鲁·加菲尔德 Andrew Garfield /...2016 / 澳大利亚 美国 / 剧情 传记 历史 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>头号玩家</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>导演: 史蒂文·斯皮尔伯格 Steven Spielberg   主演: 泰伊·谢里丹 Tye Sheri...2018 / 美国 / 动作 科幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>新世界</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>导演: 朴勋政 Hoon-jung Park   主演: 李政宰 Jung-Jae Lee / 崔岷植 Min-sik...2013 / 韩国 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>模仿游戏</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>导演: 莫滕·泰杜姆 Morten Tyldum   主演: 本尼迪克特·康伯巴奇 Benedict C...2014 / 英国 美国 / 剧情 传记 战争 同性</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>七武士</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>导演: 黑泽明 Akira Kurosawa   主演: 三船敏郎 Toshirô Mifune / 志村乔 ...1954 / 日本 / 动作 冒险 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>喜宴</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>导演: 李安 Ang Lee   主演: 赵文瑄 Winston Chao / 郎雄 Sihung Lung / 归亚...1993 / 中国台湾 美国 / 剧情 喜剧 爱情 同性 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>黑客帝国3：矩阵革命</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>导演: 拉娜·沃卓斯基 Lana Wachowski / 莉莉·沃卓斯基 Lilly Wachowski   ...2003 / 美国 / 动作 科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>花样年华</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>导演: 王家卫 Kar Wai Wong   主演: 梁朝伟 Tony Leung Chiu Wai / 张曼玉 Ma...2000 / 中国香港 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>头脑特工队</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>导演: 彼特·道格特 Pete Docter / 罗纳尔多·德尔·卡门 Ronaldo Del Carmen  &amp;nb...2015 / 美国 / 喜剧 动画 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>电锯惊魂</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>导演: 詹姆斯·温 James Wan   主演: 雷·沃纳尔 Leigh Whannell / 加利·艾...2004 / 美国 / 悬疑 惊悚 恐怖</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>三块广告牌</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>导演: 马丁·麦克唐纳 Martin McDonagh   主演: 弗兰西斯·麦克多蒙德 France...2017 / 美国 英国 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>卢旺达饭店</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>导演: 特瑞·乔治 Terry George   主演: 唐·钱德尔 Don Cheadle / 苏菲·奥...2004 / 英国 南非 意大利 美国 / 剧情 传记 历史 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>你的名字。</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>导演: 新海诚 Makoto Shinkai   主演: 神木隆之介 Ryûnosuke Kamiki / 上...2016 / 日本 / 剧情 爱情 动画</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>达拉斯买家俱乐部</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>导演: 让-马克·瓦雷 Jean-Marc Vallée   主演: 马修·麦康纳 Matthew McCon...2013 / 美国 / 剧情 传记 同性</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>疯狂原始人</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>导演: 科克·德·米科 Kirk De Micco / 克里斯·桑德斯 Chris Sanders   主演...2013 / 美国 / 喜剧 动画 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>上帝之城</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>导演: 费尔南多·梅里尔斯 Fernando Meirelles / 卡迪亚·兰德 Kátia Lund  &amp;nbsp...2002 / 巴西 法国 / 犯罪 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>谍影重重3</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>导演: 保罗·格林格拉斯 Paul Greengrass   主演: 马特·达蒙 Matt Damon / ...2007 / 美国 德国 / 动作 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>英雄本色</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>导演: 吴宇森 John Woo   主演: 周润发 Yun-Fat Chow / 狄龙 Lung Ti / 张国...1986 / 中国香港 / 剧情 动作 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>风之谷</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>导演: 宫崎骏 Hayao Miyazaki   主演: 岛本须美 Sumi Shimamoto / 松田洋治 Y...1984 / 日本 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>心迷宫</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>导演: 忻钰坤 Yukun Xin   主演: 霍卫民 Weimin Huo / 王笑天 Xiaotian Wang ...2014 / 中国大陆 / 剧情 犯罪 悬疑</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>九品芝麻官</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>导演: 王晶 Jing Wong   主演: 周星驰 Stephen Chow / 吴孟达 Man Tat Ng / ...1994 / 中国香港 中国大陆 / 剧情 喜剧 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>惊魂记</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>导演: 阿尔弗雷德·希区柯克 Alfred Hitchcock   主演: 安东尼·博金斯 Antho...1960 / 美国 / 悬疑 惊悚 恐怖</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>纵横四海</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>导演: 吴宇森 John Woo   主演: 周润发 Yun-Fat Chow / 张国荣 Leslie Cheung...1991 / 中国香港 / 剧情 喜剧 动作 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>海街日记</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>导演: 是枝裕和 Hirokazu Koreeda   主演: 绫濑遥 Haruka Ayase / 长泽雅美 M...2015 / 日本 / 剧情 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>岁月神偷</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>导演: 罗启锐 Alex Law   主演: 吴君如 Sandra Ng / 任达华 Simon Yam / 钟绍...2010 / 中国香港 中国大陆 / 剧情 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>记忆碎片</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>导演: 克里斯托弗·诺兰 Christopher Nolan   主演: 盖·皮尔斯 Guy Pearce /...2000 / 美国 / 犯罪 剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>忠犬八公物语</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>导演: Seijirô Kôyama   主演: 山本圭 Kei Yamamoto / 井川比佐志 Hisa...1987 / 日本 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>荒蛮故事</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>导演: 达米安·斯兹弗隆 Damián Szifron   主演: 达里奥·葛兰帝内提 Darío...2014 / 阿根廷 西班牙 / 剧情 喜剧 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>爱在午夜降临前</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>导演: 理查德·林克莱特 Richard Linklater   主演: 伊桑·霍克 Ethan Hawke ...2013 / 美国 希腊 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>绿里奇迹</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>导演: Frank Darabont   主演: 汤姆·汉克斯 Tom Hanks / 大卫·摩斯 David M...1999 / 美国 / 犯罪 剧情 奇幻 悬疑</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>爆裂鼓手</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>导演: 达米恩·查泽雷 Damien Chazelle   主演: 迈尔斯·特勒 Miles Teller /...2014 / 美国 / 剧情 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>小偷家族</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>导演: 是枝裕和 Hirokazu Koreeda   主演: 中川雅也 Lily Franky / 安藤樱 Sa...2018 / 日本 / 剧情 犯罪 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>贫民窟的百万富翁</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>导演: 丹尼·鲍尔 Danny Boyle / 洛芙琳·坦丹 Loveleen Tandan   主演: 戴夫...2008 / 英国 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>色，戒</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>导演: 李安 Ang Lee   主演: 梁朝伟 Tony Leung Chiu Wai / 汤唯 Wei Tang / ...2007 / 中国台湾 中国大陆 美国 中国香港 / 剧情 爱情 情色</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>真爱至上</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>导演: 理查德·柯蒂斯 Richard Curtis   主演: 休·格兰特 Hugh Grant / 柯林...2003 / 英国 美国 法国 / 喜剧 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>无敌破坏王</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>导演: 瑞奇·莫尔 Rich Moore   主演: 约翰·C·赖利 John C. Reilly / 萨拉...2012 / 美国 / 喜剧 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>东邪西毒</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>导演: 王家卫 Kar Wai Wong   主演: 张国荣 Leslie Cheung / 林青霞 Brigitte...1994 / 中国香港 中国台湾 / 剧情 动作 爱情 武侠 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>疯狂的石头</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>导演: 宁浩 Hao Ning   主演: 郭涛 Tao Guo / 刘桦 Hua Liu / 连晋 Teddy Lin2006 / 中国大陆 中国香港 / 喜剧 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>冰川时代</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>导演: 卡洛斯·沙尔丹哈 Carlos Saldanha / 克里斯·韦奇 Chris Wedge   主演...2002 / 美国 / 喜剧 动画 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>雨中曲</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>导演: 斯坦利·多南 Stanley Donen / 吉恩·凯利 Gene Kelly   主演: 吉恩·...1952 / 美国 / 喜剧 歌舞 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>黑天鹅</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>导演: 达伦·阿罗诺夫斯基 Darren Aronofsky   主演: 娜塔莉·波特曼 Natalie...2010 / 美国 / 剧情 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>你看起来好像很好吃</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>导演: 藤森雅也 Masaya Fujimori   主演: 山口胜平 Kappei Yamaguchi / 爱河...2010 / 日本 / 剧情 动画 儿童</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>恐怖游轮</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>导演: 克里斯托弗·史密斯 Christopher Smith   主演: 梅利莎·乔治 Melissa ...2009 / 英国 澳大利亚 / 剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2001太空漫游</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>导演: 斯坦利·库布里克 Stanley Kubrick   主演: 凯尔·杜拉 Keir Dullea / ...1968 / 英国 美国 / 科幻 惊悚 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>茶馆</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>导演: 谢添 Tian Xie   主演: 于是之 Shizhi Yu / 郑榕 Rong Zhen / 蓝天野 T...1982(中国大陆) / 中国大陆 / 剧情 历史</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>雨人</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>导演: 巴瑞·莱文森 Barry Levinson   主演: 达斯汀·霍夫曼 Dustin Hoffman ...1988 / 美国 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>恋恋笔记本</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>导演: 尼克·卡索维茨 Nick Cassavetes   主演: 瑞恩·高斯林 Ryan Gosling /...2004 / 美国 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>魔女宅急便</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>导演: 宫崎骏 Hayao Miyazaki   主演: 高山南 Minami Takayama / 佐久间玲 Re...1989 / 日本 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>遗愿清单</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>导演: 罗伯·莱纳 Rob Reiner   主演: 杰克·尼科尔森 Jack Nicholson / 摩根...2007 / 美国 / 冒险 喜剧 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>城市之光</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>导演: Charles Chaplin   主演: 查理·卓别林 Charles Chaplin / 弗吉尼亚·...1931 / 美国 / 喜剧 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>大佛普拉斯</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>导演: 黄信尧 Hsin-yao Huang   主演: 庄益增 Yizeng Zhuang / 陈竹昇 Chu-sh...2017 / 中国台湾 / 剧情 喜剧</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>可可西里</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>导演: 陆川 Chuan Lu   主演: 多布杰 Duobujie / 张磊 Lei Zhang / 亓亮 Qi L...2004 / 中国大陆 中国香港 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>萤火虫之墓</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>导演: 高畑勋 Isao Takahata   主演: 辰己努 / 白石绫乃 / 志乃原良子1988 / 日本 / 动画 剧情 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>无间道2</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>导演: 刘伟强 / 麦兆辉   主演: 陈冠希 / 余文乐 / 曾志伟2003 / 中国香港 / 剧情 犯罪 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>牯岭街少年杀人事件</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>导演: 杨德昌 Edward Yang   主演: 张震 Chen Chang / 杨静怡 Lisa Yang / 张...1991 / 中国台湾 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>虎口脱险</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>导演: 杰拉尔·乌里 Gérard Oury   主演: 路易·德·菲耐斯 Louis de Funès...1966 / 法国 英国 / 喜剧 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>源代码</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>导演: 邓肯·琼斯 Duncan Jones   主演: 杰克·吉伦哈尔 Jake Gyllenhaal / ...2011 / 美国 加拿大 / 科幻 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>导演: 史蒂文·斯皮尔伯格 Steven Spielberg   主演: 海利·乔·奥斯蒙 Haley...2001 / 美国 英国 / 剧情 科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>初恋这件小事</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>导演: 普特鹏·普罗萨卡·那·萨克那卡林 Puttipong Promsaka Na Sakolnakorn / 华森·波克彭...2010 / 泰国 / 剧情 喜剧 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>背靠背，脸对脸</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>导演: 黄建新 Jianxin Huang / 杨亚洲 Yazhou Yang   主演: 牛振华 Zhenhua N...1994 / 中国大陆 中国香港 / 剧情</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>海边的曼彻斯特</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>导演: 肯尼斯·罗纳根 Kenneth Lonergan   主演: 卡西·阿弗莱克 Casey Affle...2016 / 美国 / 剧情 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>东京教父</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>导演: 今敏 Satoshi Kon   主演: 江守彻 Toru Emori / 梅垣义明 Yoshiaki Ume...2003 / 日本 / 剧情 喜剧 动画</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>小丑</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>导演: 托德·菲利普斯 Todd Phillips   主演: 杰昆·菲尼克斯 Joaquin Phoeni...2019 / 美国 加拿大 / 剧情 犯罪 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>罗生门</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>导演: 黑泽明 Akira Kurosawa   主演: 三船敏郎 Toshirô Mifune / 京町子 ...1950 / 日本 / 剧情 犯罪 悬疑</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>终结者2：审判日</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>导演: 詹姆斯·卡梅隆 James Cameron   主演: 阿诺·施瓦辛格 Arnold Schwarz...1991 / 美国 法国 / 动作 科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>青蛇</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>导演: 徐克 Hark Tsui   主演: 张曼玉 Maggie Cheung / 王祖贤 Joey Wang / ...1993 / 中国香港 中国大陆 / 剧情 爱情 奇幻 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>奇迹男孩</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>导演: 斯蒂芬·卓博斯基 Stephen Chbosky   主演: 雅各布·特伦布莱 Jacob Tr...2017 / 美国 中国香港 / 剧情 儿童 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>二十二</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>导演: 郭柯 Ke Guo   主演:2015 / 中国大陆 / 纪录片</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>波西米亚狂想曲</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>导演: 布莱恩·辛格 Bryan Singer   主演: 拉米·马雷克 Rami Malek / 本·哈...2018 / 英国 美国 / 剧情 传记 同性 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>房间</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>导演: 伦尼·阿伯拉罕森 Lenny Abrahamson   主演: 布丽·拉尔森 Brie Larson...2015 / 爱尔兰 加拿大 英国 美国 / 剧情 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>疯狂的麦克斯4：狂暴之路</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>导演: 乔治·米勒 George Miller   主演: 汤姆·哈迪 Tom Hardy / 查理兹·塞...2015 / 澳大利亚 美国 / 动作 科幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>新龙门客栈</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>导演: 李惠民 Raymond Lee   主演: 张曼玉 Maggie Cheung / 林青霞 Brigitte ...1992 / 中国香港 中国大陆 / 动作 爱情 武侠 古装</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>无耻混蛋</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>导演: Quentin Tarantino   主演: 布拉德·皮特 Brad Pitt / 梅拉尼·罗兰 M...2009 / 德国 美国 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>魂断蓝桥</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>导演: 茂文·勒鲁瓦 Mervyn LeRoy   主演: 费雯·丽 Vivien Leigh / 罗伯特·...1940 / 美国 / 剧情 爱情 战争</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>血钻</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>导演: 爱德华·兹威克 Edward Zwick   主演: 莱昂纳多·迪卡普里奥 Leonardo ...2006 / 美国 德国 英国 / 剧情 惊悚 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>千钧一发</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>导演: 安德鲁·尼科尔 Andrew Niccol   主演: 伊桑·霍克 Ethan Hawke / 乌玛...1997 / 美国 / 剧情 科幻 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>步履不停</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>导演: 是枝裕和 Hirokazu Koreeda   主演: 阿部宽 Hiroshi Abe / 夏川结衣 Yu...2008 / 日本 / 剧情 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>黑客帝国2：重装上阵</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>导演: 拉娜·沃卓斯基 Lana Wachowski / 莉莉·沃卓斯基 Lilly Wachowski   ...2003 / 美国 / 动作 科幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>彗星来的那一夜</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>导演: 詹姆斯·沃德·布柯特 James Ward Byrkit   主演: 艾米丽·芭尔多尼 Em...2013 / 美国 英国 / 科幻 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>战争之王</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>导演: 安德鲁·尼科尔 Andrew Niccol   主演: 尼古拉斯·凯奇 Nicolas Cage /...2005 / 法国 德国 美国 / 剧情 犯罪</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>崖上的波妞</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>导演: 宫崎骏 Hayao Miyazaki   主演: 奈良柚莉爱 Yuria Nara / 土井洋辉 Hir...2008 / 日本 / 动画 奇幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>心灵奇旅</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>导演: 彼特·道格特 Pete Docter / 凯普·鲍尔斯 Kemp Powers   主演: 杰米·...2020 / 美国 / 动画 奇幻 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>爱乐之城</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>导演: 达米恩·查泽雷 Damien Chazelle   主演: 瑞恩·高斯林 Ryan Gosling /...2016 / 美国 / 剧情 爱情 歌舞</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>谍影重重2</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>导演: 保罗·格林格拉斯 Paul Greengrass   主演: 马特·达蒙 Matt Damon / ...2004 / 美国 德国 / 动作 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>燃情岁月</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>导演: 爱德华·兹威克 Edward Zwick   主演: 布拉德·皮特 Brad Pitt / 安东...1994 / 美国 / 剧情 爱情 战争 西部</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>阿飞正传</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>导演: 王家卫 Kar Wai Wong   主演: 张国荣 Leslie Cheung / 张曼玉 Maggie C...1990 / 中国香港 / 犯罪 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>海洋</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>导演: 雅克·贝汉 Jacques Perrin / 雅克·克鲁奥德 Jacques Cluzaud   主演:...2009 / 法国 瑞士 西班牙 美国 阿联酋 摩纳哥 / 纪录片</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>谍影重重</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>导演: 道格·里曼 Doug Liman   主演: 马特·达蒙 Matt Damon / 弗兰卡·波坦...2002 / 美国 德国 捷克 / 动作 悬疑 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>再次出发之纽约遇见你</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>导演: 约翰·卡尼 John Carney   主演: 凯拉·奈特莉 Keira Knightley / 马克...2013 / 美国 / 喜剧 爱情 音乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>火星救援</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>导演: 雷德利·斯科特 Ridley Scott   主演: 马特·达蒙 Matt Damon / 杰西卡...2015 / 英国 美国 匈牙利 约旦 / 剧情 科幻 冒险</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>末路狂花</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>导演: 雷德利·斯科特 Ridley Scott   主演: 吉娜·戴维斯 Geena Davis / 苏...1991 / 美国 英国 法国 / 犯罪 剧情 惊悚</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>穿越时空的少女</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>导演: 细田守 Mamoru Hosoda   主演: 仲里依纱 Riisa Naka / 石田卓也 Takuya...2006 / 日本 / 剧情 爱情 科幻 动画</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>朗读者</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>导演: 史蒂芬·戴德利 Stephen Daldry   主演: 凯特·温丝莱特 Kate Winslet ...2008 / 美国 德国 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>香水</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>导演: 汤姆·提克威 Tom Tykwer   主演: 本·卫肖 Ben Whishaw / 艾伦·瑞克...2006 / 德国 法国 西班牙 美国 比利时 / 剧情 犯罪 奇幻</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>地球上的星星</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>导演: 阿米尔·汗 Aamir Khan   主演: 达席尔·萨法瑞 Darsheel Safary / 阿...2007 / 印度 / 剧情 儿童 家庭</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>我爱你</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>导演: 秋昌民 Chang-min Choo   主演: 宋在河 Jae-ho Song / 李顺载 Soon-jae...2011 / 韩国 / 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>完美陌生人</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>导演: 保罗·格诺维瑟 Paolo Genovese   主演: 马可·贾利尼 Marco Giallini ...2016 / 意大利 / 剧情 喜剧</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>千年女优</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>导演: 今敏 Satoshi Kon   主演: 庄司美代子 Miyoko Shôji / 小山茉美 Mam...2001 / 日本 / 动画 剧情 爱情</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>驴得水</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>导演: 周申 Shen Zhou / 刘露 Lu Liu   主演: 任素汐 Suxi Ren / 大力 Da Li ...2016 / 中国大陆 / 剧情 喜剧</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>聚焦</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>导演: 托马斯·麦卡锡 Thomas McCarthy   主演: 马克·鲁弗洛 Mark Ruffalo /...2015 / 美国 / 剧情 传记</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>浪潮</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>导演: 丹尼斯·甘塞尔 Dennis Gansel   主演: 尤尔根·沃格尔 Jürgen Vogel ...2008 / 德国 / 剧情 惊悚</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
 </file>